--- a/categories.xlsx
+++ b/categories.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vsevolod\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vsevolod\Documents\Projects\HFT\Excel to YML\Excel-to-YML\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
   <si>
     <t>Ванная</t>
   </si>
@@ -222,6 +222,9 @@
   </si>
   <si>
     <t>cat_id</t>
+  </si>
+  <si>
+    <t>Сумки для шоппинга</t>
   </si>
 </sst>
 </file>
@@ -574,13 +577,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B65"/>
+  <dimension ref="A1:B66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
@@ -1100,6 +1106,14 @@
       </c>
       <c r="B65" s="2">
         <v>1803</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B66" s="1">
+        <v>1804</v>
       </c>
     </row>
   </sheetData>
